--- a/biology/Botanique/Blenheim_Orange/Blenheim_Orange.xlsx
+++ b/biology/Botanique/Blenheim_Orange/Blenheim_Orange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bleinheim Orange est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,11 +523,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Blenheim
 Reinette de Blenheim
-Reinette d'Angleterre[1]</t>
+Reinette d'Angleterre</t>
         </is>
       </c>
     </row>
@@ -543,13 +557,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Usage : pomme à couteau ou à cuire
 Calibre : gros
 Couleur de l'épicarpe : vert-jaune à orange
 Chair : saveur noisette
-Pédoncule: assez gros, court[2].</t>
+Pédoncule: assez gros, court.</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Woodstock, dans le comté d'Oxford, près de Blenheim en Angleterre aux environs de 1740.
 </t>
@@ -608,11 +626,13 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Variété triploïde, une difficulté non négligeable pour la pollinisation croisée dans un petit jardin.
-Groupe de floraison : B[3], D selon la pépinière anglaise Keepers...
-S-génotype : S1S3S17[4].
+Groupe de floraison : B, D selon la pépinière anglaise Keepers...
+S-génotype : S1S3S17.
 Pollinisateurs : Cox's Orange Pippin, James Grieve, Ontario...</t>
         </is>
       </c>
@@ -641,7 +661,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Tavelure: légèrement susceptible
 Mildiou: résistant
@@ -673,7 +695,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Vigueur du cultivar : forte
 Mise à fruit : lente
